--- a/tests/timed_test_framework.xlsx
+++ b/tests/timed_test_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3DD3D-2FC0-499A-A9D7-3EEAA0ED02F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C7925-6E17-4F0C-BB48-09C6B9A19FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -457,18 +457,12 @@
     <t>birth</t>
   </si>
   <si>
-    <t>Births</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>dead</t>
-  </si>
-  <si>
     <t>Transition matrix</t>
   </si>
   <si>
@@ -508,33 +502,6 @@
     <t>Birth rate</t>
   </si>
   <si>
-    <t>sus</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Infected</t>
-  </si>
-  <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
-    <t>sus,inf,rec</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>All people</t>
-  </si>
-  <si>
     <t>foi</t>
   </si>
   <si>
@@ -566,6 +533,18 @@
   </si>
   <si>
     <t>Treatment rate</t>
+  </si>
+  <si>
+    <t>vac</t>
+  </si>
+  <si>
+    <t>junc</t>
+  </si>
+  <si>
+    <t>vacdxr</t>
+  </si>
+  <si>
+    <t>dxr</t>
   </si>
 </sst>
 </file>
@@ -622,15 +601,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,10 +1162,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1175,7 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1207,84 +1186,69 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6">
-        <v>50</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6">
-        <v>60</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1048576">
+  <conditionalFormatting sqref="B1:D1 B6:D1048576 C2:D5">
     <cfRule type="expression" dxfId="6" priority="5">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
@@ -1310,10 +1274,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1289,7 @@
     <col min="5" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1333,38 +1297,20 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>40</v>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="6"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -1391,7 +1337,7 @@
   <dimension ref="A1:OI399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,1597 +1350,1597 @@
   <sheetData>
     <row r="1" spans="1:399" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
-        <v>sus</v>
+        <v>junc</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
-        <v>inf</v>
+        <v>vacdxr</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
-        <v>rec</v>
-      </c>
-      <c r="F1" s="2" t="str">
+        <v>dxr</v>
+      </c>
+      <c r="F1" s="2" t="e">
+        <f>IF(Compartments!#REF!&lt;&gt;"",Compartments!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G1" s="2" t="str">
         <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
-        <v>dead</v>
-      </c>
-      <c r="G1" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="2" t="str">
         <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="I1" s="2" t="str">
         <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="J1" s="2" t="str">
         <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="K1" s="2" t="str">
         <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="L1" s="2" t="str">
         <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="M1" s="2" t="str">
         <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="N1" s="2" t="str">
         <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="O1" s="2" t="str">
         <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="P1" s="2" t="str">
         <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="Q1" s="2" t="str">
         <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="R1" s="2" t="str">
         <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
-      <c r="R1" s="2" t="str">
+      <c r="S1" s="2" t="str">
         <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
-      <c r="S1" s="2" t="str">
+      <c r="T1" s="2" t="str">
         <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
-      <c r="T1" s="2" t="str">
+      <c r="U1" s="2" t="str">
         <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
-      <c r="U1" s="2" t="str">
+      <c r="V1" s="2" t="str">
         <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
-      <c r="V1" s="2" t="str">
+      <c r="W1" s="2" t="str">
         <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
-      <c r="W1" s="2" t="str">
+      <c r="X1" s="2" t="str">
         <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
-      <c r="X1" s="2" t="str">
+      <c r="Y1" s="2" t="str">
         <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
-      <c r="Y1" s="2" t="str">
+      <c r="Z1" s="2" t="str">
         <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
-      <c r="Z1" s="2" t="str">
+      <c r="AA1" s="2" t="str">
         <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
-      <c r="AA1" s="2" t="str">
+      <c r="AB1" s="2" t="str">
         <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="2" t="str">
+      <c r="AC1" s="2" t="str">
         <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
-      <c r="AC1" s="2" t="str">
+      <c r="AD1" s="2" t="str">
         <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
-      <c r="AD1" s="2" t="str">
+      <c r="AE1" s="2" t="str">
         <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
-      <c r="AE1" s="2" t="str">
+      <c r="AF1" s="2" t="str">
         <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
-      <c r="AF1" s="2" t="str">
+      <c r="AG1" s="2" t="str">
         <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="2" t="str">
+      <c r="AH1" s="2" t="str">
         <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
-      <c r="AH1" s="2" t="str">
+      <c r="AI1" s="2" t="str">
         <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
-      <c r="AI1" s="2" t="str">
+      <c r="AJ1" s="2" t="str">
         <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
-      <c r="AJ1" s="2" t="str">
+      <c r="AK1" s="2" t="str">
         <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
-      <c r="AK1" s="2" t="str">
+      <c r="AL1" s="2" t="str">
         <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
-      <c r="AL1" s="2" t="str">
+      <c r="AM1" s="2" t="str">
         <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
-      <c r="AM1" s="2" t="str">
+      <c r="AN1" s="2" t="str">
         <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
-      <c r="AN1" s="2" t="str">
+      <c r="AO1" s="2" t="str">
         <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
-      <c r="AO1" s="2" t="str">
+      <c r="AP1" s="2" t="str">
         <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
-      <c r="AP1" s="2" t="str">
+      <c r="AQ1" s="2" t="str">
         <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
-      <c r="AQ1" s="2" t="str">
+      <c r="AR1" s="2" t="str">
         <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
-      <c r="AR1" s="2" t="str">
+      <c r="AS1" s="2" t="str">
         <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
-      <c r="AS1" s="2" t="str">
+      <c r="AT1" s="2" t="str">
         <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
-      <c r="AT1" s="2" t="str">
+      <c r="AU1" s="2" t="str">
         <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
-      <c r="AU1" s="2" t="str">
+      <c r="AV1" s="2" t="str">
         <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
-      <c r="AV1" s="2" t="str">
+      <c r="AW1" s="2" t="str">
         <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
-      <c r="AW1" s="2" t="str">
+      <c r="AX1" s="2" t="str">
         <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
-      <c r="AX1" s="2" t="str">
+      <c r="AY1" s="2" t="str">
         <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
-      <c r="AY1" s="2" t="str">
+      <c r="AZ1" s="2" t="str">
         <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
-      <c r="AZ1" s="2" t="str">
+      <c r="BA1" s="2" t="str">
         <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
-      <c r="BA1" s="2" t="str">
+      <c r="BB1" s="2" t="str">
         <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
-      <c r="BB1" s="2" t="str">
+      <c r="BC1" s="2" t="str">
         <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
-      <c r="BC1" s="2" t="str">
+      <c r="BD1" s="2" t="str">
         <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
-      <c r="BD1" s="2" t="str">
+      <c r="BE1" s="2" t="str">
         <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
-      <c r="BE1" s="2" t="str">
+      <c r="BF1" s="2" t="str">
         <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
-      <c r="BF1" s="2" t="str">
+      <c r="BG1" s="2" t="str">
         <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
-      <c r="BG1" s="2" t="str">
+      <c r="BH1" s="2" t="str">
         <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
-      <c r="BH1" s="2" t="str">
+      <c r="BI1" s="2" t="str">
         <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
-      <c r="BI1" s="2" t="str">
+      <c r="BJ1" s="2" t="str">
         <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
-      <c r="BJ1" s="2" t="str">
+      <c r="BK1" s="2" t="str">
         <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
-      <c r="BK1" s="2" t="str">
+      <c r="BL1" s="2" t="str">
         <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
-      <c r="BL1" s="2" t="str">
+      <c r="BM1" s="2" t="str">
         <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
-      <c r="BM1" s="2" t="str">
+      <c r="BN1" s="2" t="str">
         <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
-      <c r="BN1" s="2" t="str">
+      <c r="BO1" s="2" t="str">
         <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
-      <c r="BO1" s="2" t="str">
+      <c r="BP1" s="2" t="str">
         <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
-      <c r="BP1" s="2" t="str">
+      <c r="BQ1" s="2" t="str">
         <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
-      <c r="BQ1" s="2" t="str">
+      <c r="BR1" s="2" t="str">
         <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
-      <c r="BR1" s="2" t="str">
+      <c r="BS1" s="2" t="str">
         <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
-      <c r="BS1" s="2" t="str">
+      <c r="BT1" s="2" t="str">
         <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
-      <c r="BT1" s="2" t="str">
+      <c r="BU1" s="2" t="str">
         <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
-      <c r="BU1" s="2" t="str">
+      <c r="BV1" s="2" t="str">
         <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
-      <c r="BV1" s="2" t="str">
+      <c r="BW1" s="2" t="str">
         <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
-      <c r="BW1" s="2" t="str">
+      <c r="BX1" s="2" t="str">
         <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
-      <c r="BX1" s="2" t="str">
+      <c r="BY1" s="2" t="str">
         <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
-      <c r="BY1" s="2" t="str">
+      <c r="BZ1" s="2" t="str">
         <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
-      <c r="BZ1" s="2" t="str">
+      <c r="CA1" s="2" t="str">
         <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
-      <c r="CA1" s="2" t="str">
+      <c r="CB1" s="2" t="str">
         <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
-      <c r="CB1" s="2" t="str">
+      <c r="CC1" s="2" t="str">
         <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
-      <c r="CC1" s="2" t="str">
+      <c r="CD1" s="2" t="str">
         <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
-      <c r="CD1" s="2" t="str">
+      <c r="CE1" s="2" t="str">
         <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
-      <c r="CE1" s="2" t="str">
+      <c r="CF1" s="2" t="str">
         <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
-      <c r="CF1" s="2" t="str">
+      <c r="CG1" s="2" t="str">
         <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
-      <c r="CG1" s="2" t="str">
+      <c r="CH1" s="2" t="str">
         <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
-      <c r="CH1" s="2" t="str">
+      <c r="CI1" s="2" t="str">
         <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
-      <c r="CI1" s="2" t="str">
+      <c r="CJ1" s="2" t="str">
         <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
-      <c r="CJ1" s="2" t="str">
+      <c r="CK1" s="2" t="str">
         <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
-      <c r="CK1" s="2" t="str">
+      <c r="CL1" s="2" t="str">
         <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
-      <c r="CL1" s="2" t="str">
+      <c r="CM1" s="2" t="str">
         <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
-      <c r="CM1" s="2" t="str">
+      <c r="CN1" s="2" t="str">
         <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
-      <c r="CN1" s="2" t="str">
+      <c r="CO1" s="2" t="str">
         <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
-      <c r="CO1" s="2" t="str">
+      <c r="CP1" s="2" t="str">
         <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
-      <c r="CP1" s="2" t="str">
+      <c r="CQ1" s="2" t="str">
         <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
-      <c r="CQ1" s="2" t="str">
+      <c r="CR1" s="2" t="str">
         <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
-      <c r="CR1" s="2" t="str">
+      <c r="CS1" s="2" t="str">
         <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
-      <c r="CS1" s="2" t="str">
+      <c r="CT1" s="2" t="str">
         <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
-      <c r="CT1" s="2" t="str">
+      <c r="CU1" s="2" t="str">
         <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
-      <c r="CU1" s="2" t="str">
+      <c r="CV1" s="2" t="str">
         <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
-      <c r="CV1" s="2" t="str">
+      <c r="CW1" s="2" t="str">
         <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
-      <c r="CW1" s="2" t="str">
+      <c r="CX1" s="2" t="str">
         <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
-      <c r="CX1" s="2" t="str">
+      <c r="CY1" s="2" t="str">
         <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
-      <c r="CY1" s="2" t="str">
+      <c r="CZ1" s="2" t="str">
         <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
-      <c r="CZ1" s="2" t="str">
+      <c r="DA1" s="2" t="str">
         <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
-      <c r="DA1" s="2" t="str">
+      <c r="DB1" s="2" t="str">
         <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
-      <c r="DB1" s="2" t="str">
+      <c r="DC1" s="2" t="str">
         <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
-      <c r="DC1" s="2" t="str">
+      <c r="DD1" s="2" t="str">
         <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
-      <c r="DD1" s="2" t="str">
+      <c r="DE1" s="2" t="str">
         <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
-      <c r="DE1" s="2" t="str">
+      <c r="DF1" s="2" t="str">
         <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
-      <c r="DF1" s="2" t="str">
+      <c r="DG1" s="2" t="str">
         <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
-      <c r="DG1" s="2" t="str">
+      <c r="DH1" s="2" t="str">
         <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
-      <c r="DH1" s="2" t="str">
+      <c r="DI1" s="2" t="str">
         <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
-      <c r="DI1" s="2" t="str">
+      <c r="DJ1" s="2" t="str">
         <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
-      <c r="DJ1" s="2" t="str">
+      <c r="DK1" s="2" t="str">
         <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
-      <c r="DK1" s="2" t="str">
+      <c r="DL1" s="2" t="str">
         <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
-      <c r="DL1" s="2" t="str">
+      <c r="DM1" s="2" t="str">
         <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
-      <c r="DM1" s="2" t="str">
+      <c r="DN1" s="2" t="str">
         <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
-      <c r="DN1" s="2" t="str">
+      <c r="DO1" s="2" t="str">
         <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
-      <c r="DO1" s="2" t="str">
+      <c r="DP1" s="2" t="str">
         <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
-      <c r="DP1" s="2" t="str">
+      <c r="DQ1" s="2" t="str">
         <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
-      <c r="DQ1" s="2" t="str">
+      <c r="DR1" s="2" t="str">
         <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
-      <c r="DR1" s="2" t="str">
+      <c r="DS1" s="2" t="str">
         <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
-      <c r="DS1" s="2" t="str">
+      <c r="DT1" s="2" t="str">
         <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
-      <c r="DT1" s="2" t="str">
+      <c r="DU1" s="2" t="str">
         <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
-      <c r="DU1" s="2" t="str">
+      <c r="DV1" s="2" t="str">
         <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
-      <c r="DV1" s="2" t="str">
+      <c r="DW1" s="2" t="str">
         <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
-      <c r="DW1" s="2" t="str">
+      <c r="DX1" s="2" t="str">
         <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
-      <c r="DX1" s="2" t="str">
+      <c r="DY1" s="2" t="str">
         <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
-      <c r="DY1" s="2" t="str">
+      <c r="DZ1" s="2" t="str">
         <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
-      <c r="DZ1" s="2" t="str">
+      <c r="EA1" s="2" t="str">
         <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
-      <c r="EA1" s="2" t="str">
+      <c r="EB1" s="2" t="str">
         <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
-      <c r="EB1" s="2" t="str">
+      <c r="EC1" s="2" t="str">
         <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
-      <c r="EC1" s="2" t="str">
+      <c r="ED1" s="2" t="str">
         <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
-      <c r="ED1" s="2" t="str">
+      <c r="EE1" s="2" t="str">
         <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
-      <c r="EE1" s="2" t="str">
+      <c r="EF1" s="2" t="str">
         <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
-      <c r="EF1" s="2" t="str">
+      <c r="EG1" s="2" t="str">
         <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
-      <c r="EG1" s="2" t="str">
+      <c r="EH1" s="2" t="str">
         <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
-      <c r="EH1" s="2" t="str">
+      <c r="EI1" s="2" t="str">
         <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
-      <c r="EI1" s="2" t="str">
+      <c r="EJ1" s="2" t="str">
         <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
-      <c r="EJ1" s="2" t="str">
+      <c r="EK1" s="2" t="str">
         <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
-      <c r="EK1" s="2" t="str">
+      <c r="EL1" s="2" t="str">
         <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
-      <c r="EL1" s="2" t="str">
+      <c r="EM1" s="2" t="str">
         <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
-      <c r="EM1" s="2" t="str">
+      <c r="EN1" s="2" t="str">
         <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
-      <c r="EN1" s="2" t="str">
+      <c r="EO1" s="2" t="str">
         <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
-      <c r="EO1" s="2" t="str">
+      <c r="EP1" s="2" t="str">
         <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
-      <c r="EP1" s="2" t="str">
+      <c r="EQ1" s="2" t="str">
         <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
-      <c r="EQ1" s="2" t="str">
+      <c r="ER1" s="2" t="str">
         <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
-      <c r="ER1" s="2" t="str">
+      <c r="ES1" s="2" t="str">
         <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
-      <c r="ES1" s="2" t="str">
+      <c r="ET1" s="2" t="str">
         <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
-      <c r="ET1" s="2" t="str">
+      <c r="EU1" s="2" t="str">
         <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
-      <c r="EU1" s="2" t="str">
+      <c r="EV1" s="2" t="str">
         <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
-      <c r="EV1" s="2" t="str">
+      <c r="EW1" s="2" t="str">
         <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
-      <c r="EW1" s="2" t="str">
+      <c r="EX1" s="2" t="str">
         <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
-      <c r="EX1" s="2" t="str">
+      <c r="EY1" s="2" t="str">
         <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
-      <c r="EY1" s="2" t="str">
+      <c r="EZ1" s="2" t="str">
         <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
-      <c r="EZ1" s="2" t="str">
+      <c r="FA1" s="2" t="str">
         <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
-      <c r="FA1" s="2" t="str">
+      <c r="FB1" s="2" t="str">
         <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
-      <c r="FB1" s="2" t="str">
+      <c r="FC1" s="2" t="str">
         <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
-      <c r="FC1" s="2" t="str">
+      <c r="FD1" s="2" t="str">
         <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
-      <c r="FD1" s="2" t="str">
+      <c r="FE1" s="2" t="str">
         <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
-      <c r="FE1" s="2" t="str">
+      <c r="FF1" s="2" t="str">
         <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
-      <c r="FF1" s="2" t="str">
+      <c r="FG1" s="2" t="str">
         <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
-      <c r="FG1" s="2" t="str">
+      <c r="FH1" s="2" t="str">
         <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
-      <c r="FH1" s="2" t="str">
+      <c r="FI1" s="2" t="str">
         <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
-      <c r="FI1" s="2" t="str">
+      <c r="FJ1" s="2" t="str">
         <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
-      <c r="FJ1" s="2" t="str">
+      <c r="FK1" s="2" t="str">
         <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
-      <c r="FK1" s="2" t="str">
+      <c r="FL1" s="2" t="str">
         <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
-      <c r="FL1" s="2" t="str">
+      <c r="FM1" s="2" t="str">
         <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
-      <c r="FM1" s="2" t="str">
+      <c r="FN1" s="2" t="str">
         <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
-      <c r="FN1" s="2" t="str">
+      <c r="FO1" s="2" t="str">
         <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
-      <c r="FO1" s="2" t="str">
+      <c r="FP1" s="2" t="str">
         <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
-      <c r="FP1" s="2" t="str">
+      <c r="FQ1" s="2" t="str">
         <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
-      <c r="FQ1" s="2" t="str">
+      <c r="FR1" s="2" t="str">
         <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
-      <c r="FR1" s="2" t="str">
+      <c r="FS1" s="2" t="str">
         <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
-      <c r="FS1" s="2" t="str">
+      <c r="FT1" s="2" t="str">
         <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
-      <c r="FT1" s="2" t="str">
+      <c r="FU1" s="2" t="str">
         <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
-      <c r="FU1" s="2" t="str">
+      <c r="FV1" s="2" t="str">
         <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
-      <c r="FV1" s="2" t="str">
+      <c r="FW1" s="2" t="str">
         <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
-      <c r="FW1" s="2" t="str">
+      <c r="FX1" s="2" t="str">
         <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
-      <c r="FX1" s="2" t="str">
+      <c r="FY1" s="2" t="str">
         <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
-      <c r="FY1" s="2" t="str">
+      <c r="FZ1" s="2" t="str">
         <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
-      <c r="FZ1" s="2" t="str">
+      <c r="GA1" s="2" t="str">
         <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
-      <c r="GA1" s="2" t="str">
+      <c r="GB1" s="2" t="str">
         <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
-      <c r="GB1" s="2" t="str">
+      <c r="GC1" s="2" t="str">
         <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
-      <c r="GC1" s="2" t="str">
+      <c r="GD1" s="2" t="str">
         <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
-      <c r="GD1" s="2" t="str">
+      <c r="GE1" s="2" t="str">
         <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
-      <c r="GE1" s="2" t="str">
+      <c r="GF1" s="2" t="str">
         <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
-      <c r="GF1" s="2" t="str">
+      <c r="GG1" s="2" t="str">
         <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
-      <c r="GG1" s="2" t="str">
+      <c r="GH1" s="2" t="str">
         <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
-      <c r="GH1" s="2" t="str">
+      <c r="GI1" s="2" t="str">
         <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
-      <c r="GI1" s="2" t="str">
+      <c r="GJ1" s="2" t="str">
         <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
-      <c r="GJ1" s="2" t="str">
+      <c r="GK1" s="2" t="str">
         <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
-      <c r="GK1" s="2" t="str">
+      <c r="GL1" s="2" t="str">
         <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
-      <c r="GL1" s="2" t="str">
+      <c r="GM1" s="2" t="str">
         <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
-      <c r="GM1" s="2" t="str">
+      <c r="GN1" s="2" t="str">
         <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
-      <c r="GN1" s="2" t="str">
+      <c r="GO1" s="2" t="str">
         <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
-      <c r="GO1" s="2" t="str">
+      <c r="GP1" s="2" t="str">
         <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
-      <c r="GP1" s="2" t="str">
+      <c r="GQ1" s="2" t="str">
         <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
-      <c r="GQ1" s="2" t="str">
+      <c r="GR1" s="2" t="str">
         <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
-      <c r="GR1" s="2" t="str">
+      <c r="GS1" s="2" t="str">
         <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
-      <c r="GS1" s="2" t="str">
+      <c r="GT1" s="2" t="str">
         <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
-      <c r="GT1" s="2" t="str">
+      <c r="GU1" s="2" t="str">
         <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
-      <c r="GU1" s="2" t="str">
+      <c r="GV1" s="2" t="str">
         <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
-      <c r="GV1" s="2" t="str">
+      <c r="GW1" s="2" t="str">
         <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
-      <c r="GW1" s="2" t="str">
+      <c r="GX1" s="2" t="str">
         <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
-      <c r="GX1" s="2" t="str">
+      <c r="GY1" s="2" t="str">
         <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
-      <c r="GY1" s="2" t="str">
+      <c r="GZ1" s="2" t="str">
         <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
-      <c r="GZ1" s="2" t="str">
+      <c r="HA1" s="2" t="str">
         <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
-      <c r="HA1" s="2" t="str">
+      <c r="HB1" s="2" t="str">
         <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
-      <c r="HB1" s="2" t="str">
+      <c r="HC1" s="2" t="str">
         <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
-      <c r="HC1" s="2" t="str">
+      <c r="HD1" s="2" t="str">
         <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
-      <c r="HD1" s="2" t="str">
+      <c r="HE1" s="2" t="str">
         <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
-      <c r="HE1" s="2" t="str">
+      <c r="HF1" s="2" t="str">
         <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
-      <c r="HF1" s="2" t="str">
+      <c r="HG1" s="2" t="str">
         <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
-      <c r="HG1" s="2" t="str">
+      <c r="HH1" s="2" t="str">
         <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
-      <c r="HH1" s="2" t="str">
+      <c r="HI1" s="2" t="str">
         <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
-      <c r="HI1" s="2" t="str">
+      <c r="HJ1" s="2" t="str">
         <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
-      <c r="HJ1" s="2" t="str">
+      <c r="HK1" s="2" t="str">
         <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
-      <c r="HK1" s="2" t="str">
+      <c r="HL1" s="2" t="str">
         <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
-      <c r="HL1" s="2" t="str">
+      <c r="HM1" s="2" t="str">
         <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
-      <c r="HM1" s="2" t="str">
+      <c r="HN1" s="2" t="str">
         <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
-      <c r="HN1" s="2" t="str">
+      <c r="HO1" s="2" t="str">
         <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
-      <c r="HO1" s="2" t="str">
+      <c r="HP1" s="2" t="str">
         <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
-      <c r="HP1" s="2" t="str">
+      <c r="HQ1" s="2" t="str">
         <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
-      <c r="HQ1" s="2" t="str">
+      <c r="HR1" s="2" t="str">
         <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
-      <c r="HR1" s="2" t="str">
+      <c r="HS1" s="2" t="str">
         <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
-      <c r="HS1" s="2" t="str">
+      <c r="HT1" s="2" t="str">
         <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
-      <c r="HT1" s="2" t="str">
+      <c r="HU1" s="2" t="str">
         <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
-      <c r="HU1" s="2" t="str">
+      <c r="HV1" s="2" t="str">
         <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
-      <c r="HV1" s="2" t="str">
+      <c r="HW1" s="2" t="str">
         <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
-      <c r="HW1" s="2" t="str">
+      <c r="HX1" s="2" t="str">
         <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
-      <c r="HX1" s="2" t="str">
+      <c r="HY1" s="2" t="str">
         <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
-      <c r="HY1" s="2" t="str">
+      <c r="HZ1" s="2" t="str">
         <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
-      <c r="HZ1" s="2" t="str">
+      <c r="IA1" s="2" t="str">
         <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
-      <c r="IA1" s="2" t="str">
+      <c r="IB1" s="2" t="str">
         <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
-      <c r="IB1" s="2" t="str">
+      <c r="IC1" s="2" t="str">
         <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
-      <c r="IC1" s="2" t="str">
+      <c r="ID1" s="2" t="str">
         <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
-      <c r="ID1" s="2" t="str">
+      <c r="IE1" s="2" t="str">
         <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
-      <c r="IE1" s="2" t="str">
+      <c r="IF1" s="2" t="str">
         <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
-      <c r="IF1" s="2" t="str">
+      <c r="IG1" s="2" t="str">
         <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
-      <c r="IG1" s="2" t="str">
+      <c r="IH1" s="2" t="str">
         <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
-      <c r="IH1" s="2" t="str">
+      <c r="II1" s="2" t="str">
         <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
-      <c r="II1" s="2" t="str">
+      <c r="IJ1" s="2" t="str">
         <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
-      <c r="IJ1" s="2" t="str">
+      <c r="IK1" s="2" t="str">
         <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
-      <c r="IK1" s="2" t="str">
+      <c r="IL1" s="2" t="str">
         <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
-      <c r="IL1" s="2" t="str">
+      <c r="IM1" s="2" t="str">
         <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
-      <c r="IM1" s="2" t="str">
+      <c r="IN1" s="2" t="str">
         <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
-      <c r="IN1" s="2" t="str">
+      <c r="IO1" s="2" t="str">
         <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
-      <c r="IO1" s="2" t="str">
+      <c r="IP1" s="2" t="str">
         <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
-      <c r="IP1" s="2" t="str">
+      <c r="IQ1" s="2" t="str">
         <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
-      <c r="IQ1" s="2" t="str">
+      <c r="IR1" s="2" t="str">
         <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
-      <c r="IR1" s="2" t="str">
+      <c r="IS1" s="2" t="str">
         <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
-      <c r="IS1" s="2" t="str">
+      <c r="IT1" s="2" t="str">
         <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
-      <c r="IT1" s="2" t="str">
+      <c r="IU1" s="2" t="str">
         <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
-      <c r="IU1" s="2" t="str">
+      <c r="IV1" s="2" t="str">
         <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
-      <c r="IV1" s="2" t="str">
+      <c r="IW1" s="2" t="str">
         <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
-      <c r="IW1" s="2" t="str">
+      <c r="IX1" s="2" t="str">
         <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
-      <c r="IX1" s="2" t="str">
+      <c r="IY1" s="2" t="str">
         <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
-      <c r="IY1" s="2" t="str">
+      <c r="IZ1" s="2" t="str">
         <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
-      <c r="IZ1" s="2" t="str">
+      <c r="JA1" s="2" t="str">
         <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
-      <c r="JA1" s="2" t="str">
+      <c r="JB1" s="2" t="str">
         <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
-      <c r="JB1" s="2" t="str">
+      <c r="JC1" s="2" t="str">
         <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
-      <c r="JC1" s="2" t="str">
+      <c r="JD1" s="2" t="str">
         <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
-      <c r="JD1" s="2" t="str">
+      <c r="JE1" s="2" t="str">
         <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
-      <c r="JE1" s="2" t="str">
+      <c r="JF1" s="2" t="str">
         <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
-      <c r="JF1" s="2" t="str">
+      <c r="JG1" s="2" t="str">
         <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
-      <c r="JG1" s="2" t="str">
+      <c r="JH1" s="2" t="str">
         <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
-      <c r="JH1" s="2" t="str">
+      <c r="JI1" s="2" t="str">
         <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
-      <c r="JI1" s="2" t="str">
+      <c r="JJ1" s="2" t="str">
         <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
-      <c r="JJ1" s="2" t="str">
+      <c r="JK1" s="2" t="str">
         <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
-      <c r="JK1" s="2" t="str">
+      <c r="JL1" s="2" t="str">
         <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
-      <c r="JL1" s="2" t="str">
+      <c r="JM1" s="2" t="str">
         <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
-      <c r="JM1" s="2" t="str">
+      <c r="JN1" s="2" t="str">
         <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
-      <c r="JN1" s="2" t="str">
+      <c r="JO1" s="2" t="str">
         <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
-      <c r="JO1" s="2" t="str">
+      <c r="JP1" s="2" t="str">
         <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
-      <c r="JP1" s="2" t="str">
+      <c r="JQ1" s="2" t="str">
         <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
-      <c r="JQ1" s="2" t="str">
+      <c r="JR1" s="2" t="str">
         <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
-      <c r="JR1" s="2" t="str">
+      <c r="JS1" s="2" t="str">
         <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
-      <c r="JS1" s="2" t="str">
+      <c r="JT1" s="2" t="str">
         <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
-      <c r="JT1" s="2" t="str">
+      <c r="JU1" s="2" t="str">
         <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
-      <c r="JU1" s="2" t="str">
+      <c r="JV1" s="2" t="str">
         <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
-      <c r="JV1" s="2" t="str">
+      <c r="JW1" s="2" t="str">
         <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
-      <c r="JW1" s="2" t="str">
+      <c r="JX1" s="2" t="str">
         <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
-      <c r="JX1" s="2" t="str">
+      <c r="JY1" s="2" t="str">
         <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
-      <c r="JY1" s="2" t="str">
+      <c r="JZ1" s="2" t="str">
         <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
-      <c r="JZ1" s="2" t="str">
+      <c r="KA1" s="2" t="str">
         <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
-      <c r="KA1" s="2" t="str">
+      <c r="KB1" s="2" t="str">
         <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
-      <c r="KB1" s="2" t="str">
+      <c r="KC1" s="2" t="str">
         <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
-      <c r="KC1" s="2" t="str">
+      <c r="KD1" s="2" t="str">
         <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
-      <c r="KD1" s="2" t="str">
+      <c r="KE1" s="2" t="str">
         <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
-      <c r="KE1" s="2" t="str">
+      <c r="KF1" s="2" t="str">
         <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
-      <c r="KF1" s="2" t="str">
+      <c r="KG1" s="2" t="str">
         <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
-      <c r="KG1" s="2" t="str">
+      <c r="KH1" s="2" t="str">
         <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
-      <c r="KH1" s="2" t="str">
+      <c r="KI1" s="2" t="str">
         <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
-      <c r="KI1" s="2" t="str">
+      <c r="KJ1" s="2" t="str">
         <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
-      <c r="KJ1" s="2" t="str">
+      <c r="KK1" s="2" t="str">
         <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
-      <c r="KK1" s="2" t="str">
+      <c r="KL1" s="2" t="str">
         <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
-      <c r="KL1" s="2" t="str">
+      <c r="KM1" s="2" t="str">
         <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
-      <c r="KM1" s="2" t="str">
+      <c r="KN1" s="2" t="str">
         <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
-      <c r="KN1" s="2" t="str">
+      <c r="KO1" s="2" t="str">
         <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
-      <c r="KO1" s="2" t="str">
+      <c r="KP1" s="2" t="str">
         <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
-      <c r="KP1" s="2" t="str">
+      <c r="KQ1" s="2" t="str">
         <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
-      <c r="KQ1" s="2" t="str">
+      <c r="KR1" s="2" t="str">
         <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
-      <c r="KR1" s="2" t="str">
+      <c r="KS1" s="2" t="str">
         <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
-      <c r="KS1" s="2" t="str">
+      <c r="KT1" s="2" t="str">
         <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
-      <c r="KT1" s="2" t="str">
+      <c r="KU1" s="2" t="str">
         <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
-      <c r="KU1" s="2" t="str">
+      <c r="KV1" s="2" t="str">
         <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
-      <c r="KV1" s="2" t="str">
+      <c r="KW1" s="2" t="str">
         <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
-      <c r="KW1" s="2" t="str">
+      <c r="KX1" s="2" t="str">
         <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
-      <c r="KX1" s="2" t="str">
+      <c r="KY1" s="2" t="str">
         <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
-      <c r="KY1" s="2" t="str">
+      <c r="KZ1" s="2" t="str">
         <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
-      <c r="KZ1" s="2" t="str">
+      <c r="LA1" s="2" t="str">
         <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
-      <c r="LA1" s="2" t="str">
+      <c r="LB1" s="2" t="str">
         <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
-      <c r="LB1" s="2" t="str">
+      <c r="LC1" s="2" t="str">
         <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
-      <c r="LC1" s="2" t="str">
+      <c r="LD1" s="2" t="str">
         <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
-      <c r="LD1" s="2" t="str">
+      <c r="LE1" s="2" t="str">
         <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
-      <c r="LE1" s="2" t="str">
+      <c r="LF1" s="2" t="str">
         <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
-      <c r="LF1" s="2" t="str">
+      <c r="LG1" s="2" t="str">
         <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
-      <c r="LG1" s="2" t="str">
+      <c r="LH1" s="2" t="str">
         <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
-      <c r="LH1" s="2" t="str">
+      <c r="LI1" s="2" t="str">
         <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
-      <c r="LI1" s="2" t="str">
+      <c r="LJ1" s="2" t="str">
         <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
-      <c r="LJ1" s="2" t="str">
+      <c r="LK1" s="2" t="str">
         <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
-      <c r="LK1" s="2" t="str">
+      <c r="LL1" s="2" t="str">
         <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
-      <c r="LL1" s="2" t="str">
+      <c r="LM1" s="2" t="str">
         <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
-      <c r="LM1" s="2" t="str">
+      <c r="LN1" s="2" t="str">
         <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
-      <c r="LN1" s="2" t="str">
+      <c r="LO1" s="2" t="str">
         <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
-      <c r="LO1" s="2" t="str">
+      <c r="LP1" s="2" t="str">
         <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
-      <c r="LP1" s="2" t="str">
+      <c r="LQ1" s="2" t="str">
         <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
-      <c r="LQ1" s="2" t="str">
+      <c r="LR1" s="2" t="str">
         <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
-      <c r="LR1" s="2" t="str">
+      <c r="LS1" s="2" t="str">
         <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
-      <c r="LS1" s="2" t="str">
+      <c r="LT1" s="2" t="str">
         <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
-      <c r="LT1" s="2" t="str">
+      <c r="LU1" s="2" t="str">
         <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
-      <c r="LU1" s="2" t="str">
+      <c r="LV1" s="2" t="str">
         <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
-      <c r="LV1" s="2" t="str">
+      <c r="LW1" s="2" t="str">
         <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
-      <c r="LW1" s="2" t="str">
+      <c r="LX1" s="2" t="str">
         <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
-      <c r="LX1" s="2" t="str">
+      <c r="LY1" s="2" t="str">
         <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
-      <c r="LY1" s="2" t="str">
+      <c r="LZ1" s="2" t="str">
         <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
-      <c r="LZ1" s="2" t="str">
+      <c r="MA1" s="2" t="str">
         <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
-      <c r="MA1" s="2" t="str">
+      <c r="MB1" s="2" t="str">
         <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
-      <c r="MB1" s="2" t="str">
+      <c r="MC1" s="2" t="str">
         <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
-      <c r="MC1" s="2" t="str">
+      <c r="MD1" s="2" t="str">
         <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
-      <c r="MD1" s="2" t="str">
+      <c r="ME1" s="2" t="str">
         <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
-      <c r="ME1" s="2" t="str">
+      <c r="MF1" s="2" t="str">
         <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
-      <c r="MF1" s="2" t="str">
+      <c r="MG1" s="2" t="str">
         <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
-      <c r="MG1" s="2" t="str">
+      <c r="MH1" s="2" t="str">
         <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
-      <c r="MH1" s="2" t="str">
+      <c r="MI1" s="2" t="str">
         <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
-      <c r="MI1" s="2" t="str">
+      <c r="MJ1" s="2" t="str">
         <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
-      <c r="MJ1" s="2" t="str">
+      <c r="MK1" s="2" t="str">
         <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
-      <c r="MK1" s="2" t="str">
+      <c r="ML1" s="2" t="str">
         <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
-      <c r="ML1" s="2" t="str">
+      <c r="MM1" s="2" t="str">
         <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
-      <c r="MM1" s="2" t="str">
+      <c r="MN1" s="2" t="str">
         <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
-      <c r="MN1" s="2" t="str">
+      <c r="MO1" s="2" t="str">
         <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
-      <c r="MO1" s="2" t="str">
+      <c r="MP1" s="2" t="str">
         <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
-      <c r="MP1" s="2" t="str">
+      <c r="MQ1" s="2" t="str">
         <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
-      <c r="MQ1" s="2" t="str">
+      <c r="MR1" s="2" t="str">
         <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
-      <c r="MR1" s="2" t="str">
+      <c r="MS1" s="2" t="str">
         <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
-      <c r="MS1" s="2" t="str">
+      <c r="MT1" s="2" t="str">
         <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
-      <c r="MT1" s="2" t="str">
+      <c r="MU1" s="2" t="str">
         <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
-      <c r="MU1" s="2" t="str">
+      <c r="MV1" s="2" t="str">
         <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
-      <c r="MV1" s="2" t="str">
+      <c r="MW1" s="2" t="str">
         <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
-      <c r="MW1" s="2" t="str">
+      <c r="MX1" s="2" t="str">
         <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
-      <c r="MX1" s="2" t="str">
+      <c r="MY1" s="2" t="str">
         <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
-      <c r="MY1" s="2" t="str">
+      <c r="MZ1" s="2" t="str">
         <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
-      <c r="MZ1" s="2" t="str">
+      <c r="NA1" s="2" t="str">
         <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
-      <c r="NA1" s="2" t="str">
+      <c r="NB1" s="2" t="str">
         <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
-      <c r="NB1" s="2" t="str">
+      <c r="NC1" s="2" t="str">
         <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
-      <c r="NC1" s="2" t="str">
+      <c r="ND1" s="2" t="str">
         <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
-      <c r="ND1" s="2" t="str">
+      <c r="NE1" s="2" t="str">
         <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
-      <c r="NE1" s="2" t="str">
+      <c r="NF1" s="2" t="str">
         <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
-      <c r="NF1" s="2" t="str">
+      <c r="NG1" s="2" t="str">
         <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
-      <c r="NG1" s="2" t="str">
+      <c r="NH1" s="2" t="str">
         <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
-      <c r="NH1" s="2" t="str">
+      <c r="NI1" s="2" t="str">
         <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
-      <c r="NI1" s="2" t="str">
+      <c r="NJ1" s="2" t="str">
         <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
-      <c r="NJ1" s="2" t="str">
+      <c r="NK1" s="2" t="str">
         <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
-      <c r="NK1" s="2" t="str">
+      <c r="NL1" s="2" t="str">
         <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
-      <c r="NL1" s="2" t="str">
+      <c r="NM1" s="2" t="str">
         <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
-      <c r="NM1" s="2" t="str">
+      <c r="NN1" s="2" t="str">
         <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
-      <c r="NN1" s="2" t="str">
+      <c r="NO1" s="2" t="str">
         <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
-      <c r="NO1" s="2" t="str">
+      <c r="NP1" s="2" t="str">
         <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
-      <c r="NP1" s="2" t="str">
+      <c r="NQ1" s="2" t="str">
         <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
-      <c r="NQ1" s="2" t="str">
+      <c r="NR1" s="2" t="str">
         <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
-      <c r="NR1" s="2" t="str">
+      <c r="NS1" s="2" t="str">
         <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
-      <c r="NS1" s="2" t="str">
+      <c r="NT1" s="2" t="str">
         <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
-      <c r="NT1" s="2" t="str">
+      <c r="NU1" s="2" t="str">
         <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
-      <c r="NU1" s="2" t="str">
+      <c r="NV1" s="2" t="str">
         <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
-      <c r="NV1" s="2" t="str">
+      <c r="NW1" s="2" t="str">
         <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
-      <c r="NW1" s="2" t="str">
+      <c r="NX1" s="2" t="str">
         <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
-      <c r="NX1" s="2" t="str">
+      <c r="NY1" s="2" t="str">
         <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
-      <c r="NY1" s="2" t="str">
+      <c r="NZ1" s="2" t="str">
         <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
-      <c r="NZ1" s="2" t="str">
+      <c r="OA1" s="2" t="str">
         <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
-      <c r="OA1" s="2" t="str">
+      <c r="OB1" s="2" t="str">
         <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
-      <c r="OB1" s="2" t="str">
+      <c r="OC1" s="2" t="str">
         <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
-      <c r="OC1" s="2" t="str">
+      <c r="OD1" s="2" t="str">
         <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
-      <c r="OD1" s="2" t="str">
+      <c r="OE1" s="2" t="str">
         <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
-      <c r="OE1" s="2" t="str">
+      <c r="OF1" s="2" t="str">
         <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
-      <c r="OF1" s="2" t="str">
+      <c r="OG1" s="2" t="str">
         <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
-      <c r="OG1" s="2" t="str">
+      <c r="OH1" s="2" t="str">
         <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
-      <c r="OH1" s="2" t="str">
+      <c r="OI1" s="2" t="str">
         <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
-        <v/>
-      </c>
-      <c r="OI1" s="2" t="str">
-        <f>IF(Compartments!$A399&lt;&gt;"",Compartments!$A399,"")</f>
         <v/>
       </c>
     </row>
@@ -3003,2402 +2949,2402 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
-        <v>sus</v>
+        <v>junc</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
-        <v>inf</v>
+        <v>vacdxr</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
-        <v>rec</v>
+        <v>dxr</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:399" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
-        <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
-        <v>dead</v>
+      <c r="A6" s="2" t="e">
+        <f>IF(Compartments!#REF!&lt;&gt;"",Compartments!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
+        <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
+        <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
-        <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
+        <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
+        <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
+        <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
-        <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
+        <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
-        <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
+        <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
-        <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
+        <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
+        <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
-        <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
+        <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
-        <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
+        <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
-        <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
+        <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
-        <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
+        <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
-        <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
+        <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
-        <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
+        <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
-        <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
+        <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
-        <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
+        <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
+        <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
-        <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
+        <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
-        <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
+        <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
-        <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
+        <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
-        <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
+        <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
-        <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
+        <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
-        <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
+        <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
-        <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
+        <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
+        <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
+        <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
+        <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
+        <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
+        <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
-        <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
+        <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
-        <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
+        <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
-        <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
+        <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
-        <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
+        <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
-        <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
+        <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
-        <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
+        <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
-        <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
+        <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
-        <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
+        <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
-        <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
+        <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
-        <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
+        <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
-        <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
+        <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
-        <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
+        <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
-        <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
+        <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
-        <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
+        <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
-        <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
+        <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
-        <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
+        <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
-        <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
+        <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
-        <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
+        <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
-        <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
+        <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
-        <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
+        <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
-        <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
+        <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
-        <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
+        <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
-        <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
+        <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
-        <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
+        <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
-        <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
+        <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
-        <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
+        <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
-        <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
+        <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
-        <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
+        <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
-        <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
+        <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
-        <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
+        <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
-        <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
+        <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
-        <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
+        <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
+        <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
+        <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
+        <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
+        <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
-        <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
+        <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
-        <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
+        <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
-        <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
+        <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
+        <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
+        <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
+        <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
+        <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
-        <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
+        <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
-        <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
+        <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
-        <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
+        <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
+        <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
+        <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
+        <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
+        <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
-        <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
+        <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
-        <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
+        <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
-        <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
+        <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
+        <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
-        <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
+        <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
+        <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
+        <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
-        <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
+        <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
-        <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
+        <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
-        <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
+        <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
-        <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
+        <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
-        <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
+        <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
-        <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
+        <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
-        <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
+        <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
-        <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
+        <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
-        <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
+        <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
-        <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
+        <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
-        <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
+        <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
-        <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
+        <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
-        <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
+        <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
-        <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
+        <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
-        <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
+        <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
-        <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
+        <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
-        <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
+        <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
-        <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
+        <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
-        <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
+        <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
-        <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
+        <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="str">
-        <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
+        <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
-        <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
+        <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
-        <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
+        <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="str">
-        <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
+        <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
-        <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
+        <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
-        <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
+        <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
-        <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
+        <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
-        <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
+        <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
-        <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
+        <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
-        <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
+        <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
-        <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
+        <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
-        <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
+        <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
-        <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
+        <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
-        <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
+        <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="str">
-        <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
+        <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
-        <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
+        <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="str">
-        <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
+        <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="str">
-        <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
+        <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="str">
-        <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
+        <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="str">
-        <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
+        <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="str">
-        <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
+        <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="str">
-        <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
+        <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="str">
-        <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
+        <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="str">
-        <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
+        <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="str">
-        <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
+        <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="str">
-        <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
+        <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="str">
-        <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
+        <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str">
-        <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
+        <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str">
-        <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
+        <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="str">
-        <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
+        <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="str">
-        <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
+        <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="str">
-        <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
+        <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="str">
-        <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
+        <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="str">
-        <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
+        <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="str">
-        <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
+        <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="str">
-        <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
+        <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="str">
-        <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
+        <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="str">
-        <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
+        <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="str">
-        <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
+        <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="str">
-        <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
+        <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="str">
-        <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
+        <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="str">
-        <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
+        <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="str">
-        <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
+        <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="str">
-        <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
+        <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="str">
-        <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
+        <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="str">
-        <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
+        <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="str">
-        <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
+        <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="str">
-        <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
+        <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="str">
-        <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
+        <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="str">
-        <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
+        <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="str">
-        <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
+        <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="str">
-        <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
+        <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="str">
-        <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
+        <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="str">
-        <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
+        <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="str">
-        <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
+        <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="str">
-        <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
+        <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="str">
-        <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
+        <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="str">
-        <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
+        <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="str">
-        <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
+        <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="str">
-        <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
+        <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="str">
-        <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
+        <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="str">
-        <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
+        <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="str">
-        <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
+        <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="str">
-        <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
+        <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="str">
-        <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
+        <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="str">
-        <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
+        <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="str">
-        <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
+        <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="str">
-        <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
+        <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="str">
-        <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
+        <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="str">
-        <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
+        <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="str">
-        <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
+        <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="str">
-        <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
+        <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="str">
-        <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
+        <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="str">
-        <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
+        <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="str">
-        <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
+        <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="str">
-        <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
+        <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="str">
-        <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
+        <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="str">
-        <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
+        <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="str">
-        <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
+        <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="str">
-        <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
+        <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="str">
-        <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
+        <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="str">
-        <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
+        <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="str">
-        <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
+        <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="str">
-        <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
+        <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="str">
-        <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
+        <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="str">
-        <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
+        <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="str">
-        <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
+        <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="str">
-        <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
+        <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="str">
-        <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
+        <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="str">
-        <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
+        <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="str">
-        <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
+        <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="str">
-        <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
+        <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="str">
-        <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
+        <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="str">
-        <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
+        <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="str">
-        <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
+        <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="str">
-        <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
+        <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="str">
-        <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
+        <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="str">
-        <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
+        <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="str">
-        <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
+        <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="str">
-        <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
+        <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="str">
-        <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
+        <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="str">
-        <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
+        <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="str">
-        <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
+        <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="str">
-        <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
+        <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="str">
-        <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
+        <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="str">
-        <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
+        <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="str">
-        <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
+        <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="str">
-        <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
+        <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="str">
-        <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
+        <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="str">
-        <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
+        <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="str">
-        <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
+        <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="str">
-        <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
+        <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="str">
-        <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
+        <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="str">
-        <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
+        <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="str">
-        <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
+        <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="str">
-        <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
+        <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="str">
-        <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
+        <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="str">
-        <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
+        <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="str">
-        <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
+        <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="str">
-        <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
+        <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="str">
-        <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
+        <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="str">
-        <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
+        <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="str">
-        <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
+        <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="str">
-        <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
+        <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="str">
-        <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
+        <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="str">
-        <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
+        <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="str">
-        <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
+        <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="str">
-        <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
+        <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="str">
-        <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
+        <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="str">
-        <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
+        <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="str">
-        <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
+        <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="str">
-        <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
+        <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="str">
-        <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
+        <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="str">
-        <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
+        <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="str">
-        <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
+        <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="str">
-        <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
+        <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="str">
-        <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
+        <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="str">
-        <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
+        <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="str">
-        <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
+        <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="str">
-        <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
+        <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="str">
-        <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
+        <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="str">
-        <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
+        <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="str">
-        <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
+        <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="str">
-        <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
+        <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="str">
-        <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
+        <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="str">
-        <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
+        <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="str">
-        <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
+        <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="str">
-        <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
+        <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="str">
-        <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
+        <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="str">
-        <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
+        <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="str">
-        <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
+        <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="str">
-        <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
+        <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="str">
-        <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
+        <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="str">
-        <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
+        <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="str">
-        <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
+        <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="str">
-        <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
+        <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="str">
-        <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
+        <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="str">
-        <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
+        <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="str">
-        <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
+        <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="str">
-        <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
+        <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="str">
-        <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
+        <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="str">
-        <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
+        <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="str">
-        <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
+        <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="str">
-        <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
+        <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="str">
-        <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
+        <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="str">
-        <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
+        <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="str">
-        <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
+        <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="str">
-        <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
+        <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="str">
-        <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
+        <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="str">
-        <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
+        <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="str">
-        <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
+        <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="str">
-        <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
+        <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="str">
-        <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
+        <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="str">
-        <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
+        <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="str">
-        <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
+        <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="str">
-        <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
+        <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="str">
-        <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
+        <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="str">
-        <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
+        <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="str">
-        <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
+        <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="str">
-        <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
+        <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="str">
-        <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
+        <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="str">
-        <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
+        <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="str">
-        <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
+        <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="str">
-        <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
+        <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="str">
-        <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
+        <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="str">
-        <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
+        <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="str">
-        <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
+        <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="str">
-        <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
+        <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="str">
-        <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
+        <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="str">
-        <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
+        <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="str">
-        <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
+        <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="str">
-        <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
+        <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="str">
-        <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
+        <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="str">
-        <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
+        <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="str">
-        <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
+        <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="str">
-        <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
+        <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="str">
-        <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
+        <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="str">
-        <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
+        <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="str">
-        <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
+        <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="str">
-        <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
+        <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="str">
-        <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
+        <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="str">
-        <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
+        <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="str">
-        <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
+        <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="str">
-        <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
+        <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="str">
-        <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
+        <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="str">
-        <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
+        <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="str">
-        <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
+        <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="str">
-        <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
+        <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="str">
-        <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
+        <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="str">
-        <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
+        <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="str">
-        <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
+        <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="str">
-        <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
+        <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="str">
-        <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
+        <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="str">
-        <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
+        <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="str">
-        <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
+        <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="str">
-        <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
+        <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="str">
-        <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
+        <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="str">
-        <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
+        <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="str">
-        <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
+        <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="str">
-        <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
+        <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="str">
-        <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
+        <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="str">
-        <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
+        <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="str">
-        <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
+        <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="str">
-        <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
+        <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="str">
-        <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
+        <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="str">
-        <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
+        <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="str">
-        <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
+        <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="str">
-        <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
+        <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="str">
-        <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
+        <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="str">
-        <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
+        <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="str">
-        <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
+        <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="str">
-        <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
+        <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="str">
-        <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
+        <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="str">
-        <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
+        <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="str">
-        <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
+        <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="str">
-        <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
+        <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="str">
-        <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
+        <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="str">
-        <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
+        <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="str">
-        <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
+        <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="str">
-        <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
+        <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="str">
-        <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
+        <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="str">
-        <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
+        <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="str">
-        <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
+        <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="str">
-        <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
+        <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="str">
-        <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
+        <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="str">
-        <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
+        <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="str">
-        <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
+        <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="str">
-        <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
+        <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="str">
-        <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
+        <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="str">
-        <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
+        <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="str">
-        <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
+        <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="str">
-        <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
+        <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="str">
-        <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
+        <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="str">
-        <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
+        <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="str">
-        <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
+        <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="str">
-        <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
+        <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="str">
-        <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
+        <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="str">
-        <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
+        <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="str">
-        <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
+        <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="str">
-        <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
+        <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="str">
-        <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
+        <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="str">
-        <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
+        <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="str">
-        <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
+        <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="str">
-        <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
+        <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="str">
-        <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
+        <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="str">
-        <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
+        <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="str">
-        <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
+        <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="str">
-        <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
+        <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="str">
-        <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
+        <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="str">
-        <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
+        <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="str">
-        <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
+        <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="str">
-        <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
+        <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="str">
-        <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
+        <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="str">
-        <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
+        <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="str">
-        <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
+        <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="str">
-        <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
+        <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="str">
-        <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
+        <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="str">
-        <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
+        <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="str">
-        <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
+        <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="str">
-        <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
+        <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="str">
-        <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
+        <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="str">
-        <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
+        <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="str">
-        <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
+        <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="str">
-        <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
+        <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="str">
-        <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
+        <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="str">
-        <f>IF(Compartments!$A399&lt;&gt;"",Compartments!$A399,"")</f>
+        <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
       </c>
     </row>
@@ -5415,8 +5361,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,16 +5371,16 @@
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5442,190 +5388,190 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5">
         <v>120</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6">
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5">
         <v>24</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>32</v>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>32</v>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">

--- a/tests/timed_test_framework.xlsx
+++ b/tests/timed_test_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C7925-6E17-4F0C-BB48-09C6B9A19FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196AF2E-50D7-41F4-9D07-821EC4CDA6B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="26730" windowHeight="16305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -365,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -457,12 +458,18 @@
     <t>birth</t>
   </si>
   <si>
+    <t>Births</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
+    <t>dead</t>
+  </si>
+  <si>
     <t>Transition matrix</t>
   </si>
   <si>
@@ -502,6 +509,33 @@
     <t>Birth rate</t>
   </si>
   <si>
+    <t>sus</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Infected</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>sus,inf,rec</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>All people</t>
+  </si>
+  <si>
     <t>foi</t>
   </si>
   <si>
@@ -533,18 +567,6 @@
   </si>
   <si>
     <t>Treatment rate</t>
-  </si>
-  <si>
-    <t>vac</t>
-  </si>
-  <si>
-    <t>junc</t>
-  </si>
-  <si>
-    <t>vacdxr</t>
-  </si>
-  <si>
-    <t>dxr</t>
   </si>
 </sst>
 </file>
@@ -601,15 +623,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,10 +1184,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1197,7 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1186,69 +1208,84 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
         <v>50</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:D1 B6:D1048576 C2:D5">
+  <conditionalFormatting sqref="B1:D1048576">
     <cfRule type="expression" dxfId="6" priority="5">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
@@ -1274,10 +1311,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1326,7 @@
     <col min="5" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1297,20 +1334,38 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>38</v>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -1337,7 +1392,7 @@
   <dimension ref="A1:OI399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,1597 +1405,1597 @@
   <sheetData>
     <row r="1" spans="1:399" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="2" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
-        <v>junc</v>
+        <v>sus</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
-        <v>vacdxr</v>
+        <v>inf</v>
       </c>
       <c r="E1" s="2" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
-        <v>dxr</v>
-      </c>
-      <c r="F1" s="2" t="e">
-        <f>IF(Compartments!#REF!&lt;&gt;"",Compartments!#REF!,"")</f>
-        <v>#REF!</v>
+        <v>rec</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
+        <v>dead</v>
       </c>
       <c r="G1" s="2" t="str">
-        <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
+        <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
       <c r="H1" s="2" t="str">
-        <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
+        <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
       <c r="I1" s="2" t="str">
-        <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
+        <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
       <c r="J1" s="2" t="str">
-        <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
+        <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
       <c r="K1" s="2" t="str">
-        <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
+        <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
       <c r="L1" s="2" t="str">
-        <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
+        <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
       <c r="M1" s="2" t="str">
-        <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
+        <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
       <c r="N1" s="2" t="str">
-        <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
+        <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
       <c r="O1" s="2" t="str">
-        <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
+        <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
       <c r="P1" s="2" t="str">
-        <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
+        <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
       <c r="Q1" s="2" t="str">
-        <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
+        <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
       <c r="R1" s="2" t="str">
-        <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
+        <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
       <c r="S1" s="2" t="str">
-        <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
+        <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
       <c r="T1" s="2" t="str">
-        <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
+        <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
       <c r="U1" s="2" t="str">
-        <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
+        <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
       <c r="V1" s="2" t="str">
-        <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
+        <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
       <c r="W1" s="2" t="str">
-        <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
+        <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
       <c r="X1" s="2" t="str">
-        <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
+        <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
       <c r="Y1" s="2" t="str">
-        <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
+        <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
       <c r="Z1" s="2" t="str">
-        <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
+        <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
       <c r="AA1" s="2" t="str">
-        <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
+        <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
       <c r="AB1" s="2" t="str">
-        <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
+        <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
       <c r="AC1" s="2" t="str">
-        <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
+        <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
       <c r="AD1" s="2" t="str">
-        <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
+        <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
       <c r="AE1" s="2" t="str">
-        <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
+        <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
       <c r="AF1" s="2" t="str">
-        <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
+        <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
       <c r="AG1" s="2" t="str">
-        <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
+        <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
       <c r="AH1" s="2" t="str">
-        <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
+        <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
       <c r="AI1" s="2" t="str">
-        <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
+        <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
       <c r="AJ1" s="2" t="str">
-        <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
+        <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
       <c r="AK1" s="2" t="str">
-        <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
+        <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
       <c r="AL1" s="2" t="str">
-        <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
+        <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
       <c r="AM1" s="2" t="str">
-        <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
+        <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
       <c r="AN1" s="2" t="str">
-        <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
+        <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
       <c r="AO1" s="2" t="str">
-        <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
+        <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
       <c r="AP1" s="2" t="str">
-        <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
+        <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
       <c r="AQ1" s="2" t="str">
-        <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
+        <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
       <c r="AR1" s="2" t="str">
-        <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
+        <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
       <c r="AS1" s="2" t="str">
-        <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
+        <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
       <c r="AT1" s="2" t="str">
-        <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
+        <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
       <c r="AU1" s="2" t="str">
-        <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
+        <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
       <c r="AV1" s="2" t="str">
-        <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
+        <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
       <c r="AW1" s="2" t="str">
-        <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
+        <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
       <c r="AX1" s="2" t="str">
-        <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
+        <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
       <c r="AY1" s="2" t="str">
-        <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
+        <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
       <c r="AZ1" s="2" t="str">
-        <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
+        <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
       <c r="BA1" s="2" t="str">
-        <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
+        <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
       <c r="BB1" s="2" t="str">
-        <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
+        <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
       <c r="BC1" s="2" t="str">
-        <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
+        <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
       <c r="BD1" s="2" t="str">
-        <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
+        <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
       <c r="BE1" s="2" t="str">
-        <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
+        <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
       <c r="BF1" s="2" t="str">
-        <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
+        <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
       <c r="BG1" s="2" t="str">
-        <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
+        <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
       <c r="BH1" s="2" t="str">
-        <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
+        <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
       <c r="BI1" s="2" t="str">
-        <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
+        <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
       <c r="BJ1" s="2" t="str">
-        <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
+        <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
       <c r="BK1" s="2" t="str">
-        <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
+        <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
       <c r="BL1" s="2" t="str">
-        <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
+        <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
       <c r="BM1" s="2" t="str">
-        <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
+        <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
       <c r="BN1" s="2" t="str">
-        <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
+        <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
       <c r="BO1" s="2" t="str">
-        <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
+        <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
       <c r="BP1" s="2" t="str">
-        <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
+        <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
       <c r="BQ1" s="2" t="str">
-        <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
+        <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
       <c r="BR1" s="2" t="str">
-        <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
+        <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
       <c r="BS1" s="2" t="str">
-        <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
+        <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
       <c r="BT1" s="2" t="str">
-        <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
+        <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
       <c r="BU1" s="2" t="str">
-        <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
+        <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
       <c r="BV1" s="2" t="str">
-        <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
+        <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
       <c r="BW1" s="2" t="str">
-        <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
+        <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
       <c r="BX1" s="2" t="str">
-        <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
+        <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
       <c r="BY1" s="2" t="str">
-        <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
+        <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
       <c r="BZ1" s="2" t="str">
-        <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
+        <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
       <c r="CA1" s="2" t="str">
-        <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
+        <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
       <c r="CB1" s="2" t="str">
-        <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
+        <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
       <c r="CC1" s="2" t="str">
-        <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
+        <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
       <c r="CD1" s="2" t="str">
-        <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
+        <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
       <c r="CE1" s="2" t="str">
-        <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
+        <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
       <c r="CF1" s="2" t="str">
-        <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
+        <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
       <c r="CG1" s="2" t="str">
-        <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
+        <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
       <c r="CH1" s="2" t="str">
-        <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
+        <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
       <c r="CI1" s="2" t="str">
-        <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
+        <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
       <c r="CJ1" s="2" t="str">
-        <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
+        <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
       <c r="CK1" s="2" t="str">
-        <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
+        <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
       <c r="CL1" s="2" t="str">
-        <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
+        <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
       <c r="CM1" s="2" t="str">
-        <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
+        <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
       <c r="CN1" s="2" t="str">
-        <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
+        <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
       <c r="CO1" s="2" t="str">
-        <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
+        <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
       <c r="CP1" s="2" t="str">
-        <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
+        <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
       <c r="CQ1" s="2" t="str">
-        <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
+        <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
       <c r="CR1" s="2" t="str">
-        <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
+        <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
       <c r="CS1" s="2" t="str">
-        <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
+        <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
       <c r="CT1" s="2" t="str">
-        <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
+        <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
       <c r="CU1" s="2" t="str">
-        <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
+        <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
       <c r="CV1" s="2" t="str">
-        <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
+        <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
       <c r="CW1" s="2" t="str">
-        <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
+        <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
       <c r="CX1" s="2" t="str">
-        <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
+        <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
       <c r="CY1" s="2" t="str">
-        <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
+        <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
       <c r="CZ1" s="2" t="str">
-        <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
+        <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
       <c r="DA1" s="2" t="str">
-        <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
+        <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
       <c r="DB1" s="2" t="str">
-        <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
+        <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
       <c r="DC1" s="2" t="str">
-        <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
+        <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
       <c r="DD1" s="2" t="str">
-        <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
+        <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
       <c r="DE1" s="2" t="str">
-        <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
+        <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
       <c r="DF1" s="2" t="str">
-        <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
+        <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
       <c r="DG1" s="2" t="str">
-        <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
+        <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
       <c r="DH1" s="2" t="str">
-        <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
+        <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
       <c r="DI1" s="2" t="str">
-        <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
+        <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
       <c r="DJ1" s="2" t="str">
-        <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
+        <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
       <c r="DK1" s="2" t="str">
-        <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
+        <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
       <c r="DL1" s="2" t="str">
-        <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
+        <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
       <c r="DM1" s="2" t="str">
-        <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
+        <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
       <c r="DN1" s="2" t="str">
-        <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
+        <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
       <c r="DO1" s="2" t="str">
-        <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
+        <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
       <c r="DP1" s="2" t="str">
-        <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
+        <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
       <c r="DQ1" s="2" t="str">
-        <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
+        <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
       <c r="DR1" s="2" t="str">
-        <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
+        <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
       <c r="DS1" s="2" t="str">
-        <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
+        <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
       <c r="DT1" s="2" t="str">
-        <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
+        <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
       <c r="DU1" s="2" t="str">
-        <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
+        <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
       <c r="DV1" s="2" t="str">
-        <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
+        <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
       <c r="DW1" s="2" t="str">
-        <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
+        <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
       <c r="DX1" s="2" t="str">
-        <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
+        <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
       <c r="DY1" s="2" t="str">
-        <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
+        <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
       <c r="DZ1" s="2" t="str">
-        <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
+        <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
       <c r="EA1" s="2" t="str">
-        <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
+        <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
       <c r="EB1" s="2" t="str">
-        <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
+        <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
       <c r="EC1" s="2" t="str">
-        <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
+        <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
       <c r="ED1" s="2" t="str">
-        <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
+        <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
       <c r="EE1" s="2" t="str">
-        <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
+        <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
       <c r="EF1" s="2" t="str">
-        <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
+        <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
       <c r="EG1" s="2" t="str">
-        <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
+        <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
       <c r="EH1" s="2" t="str">
-        <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
+        <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
       <c r="EI1" s="2" t="str">
-        <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
+        <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
       <c r="EJ1" s="2" t="str">
-        <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
+        <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
       <c r="EK1" s="2" t="str">
-        <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
+        <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
       <c r="EL1" s="2" t="str">
-        <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
+        <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
       <c r="EM1" s="2" t="str">
-        <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
+        <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
       <c r="EN1" s="2" t="str">
-        <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
+        <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
       <c r="EO1" s="2" t="str">
-        <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
+        <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
       <c r="EP1" s="2" t="str">
-        <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
+        <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
       <c r="EQ1" s="2" t="str">
-        <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
+        <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
       <c r="ER1" s="2" t="str">
-        <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
+        <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
       <c r="ES1" s="2" t="str">
-        <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
+        <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
       <c r="ET1" s="2" t="str">
-        <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
+        <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
       <c r="EU1" s="2" t="str">
-        <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
+        <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
       <c r="EV1" s="2" t="str">
-        <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
+        <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
       <c r="EW1" s="2" t="str">
-        <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
+        <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
       <c r="EX1" s="2" t="str">
-        <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
+        <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
       <c r="EY1" s="2" t="str">
-        <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
+        <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
       <c r="EZ1" s="2" t="str">
-        <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
+        <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
       <c r="FA1" s="2" t="str">
-        <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
+        <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
       <c r="FB1" s="2" t="str">
-        <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
+        <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
       <c r="FC1" s="2" t="str">
-        <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
+        <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
       <c r="FD1" s="2" t="str">
-        <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
+        <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
       <c r="FE1" s="2" t="str">
-        <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
+        <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
       <c r="FF1" s="2" t="str">
-        <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
+        <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
       <c r="FG1" s="2" t="str">
-        <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
+        <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
       <c r="FH1" s="2" t="str">
-        <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
+        <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
       <c r="FI1" s="2" t="str">
-        <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
+        <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
       <c r="FJ1" s="2" t="str">
-        <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
+        <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
       <c r="FK1" s="2" t="str">
-        <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
+        <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
       <c r="FL1" s="2" t="str">
-        <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
+        <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
       <c r="FM1" s="2" t="str">
-        <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
+        <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
       <c r="FN1" s="2" t="str">
-        <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
+        <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
       <c r="FO1" s="2" t="str">
-        <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
+        <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
       <c r="FP1" s="2" t="str">
-        <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
+        <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
       <c r="FQ1" s="2" t="str">
-        <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
+        <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
       <c r="FR1" s="2" t="str">
-        <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
+        <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
       <c r="FS1" s="2" t="str">
-        <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
+        <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
       <c r="FT1" s="2" t="str">
-        <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
+        <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
       <c r="FU1" s="2" t="str">
-        <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
+        <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
       <c r="FV1" s="2" t="str">
-        <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
+        <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
       <c r="FW1" s="2" t="str">
-        <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
+        <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
       <c r="FX1" s="2" t="str">
-        <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
+        <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
       <c r="FY1" s="2" t="str">
-        <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
+        <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
       <c r="FZ1" s="2" t="str">
-        <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
+        <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
       <c r="GA1" s="2" t="str">
-        <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
+        <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
       <c r="GB1" s="2" t="str">
-        <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
+        <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
       <c r="GC1" s="2" t="str">
-        <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
+        <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
       <c r="GD1" s="2" t="str">
-        <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
+        <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
       <c r="GE1" s="2" t="str">
-        <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
+        <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
       <c r="GF1" s="2" t="str">
-        <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
+        <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
       <c r="GG1" s="2" t="str">
-        <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
+        <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
       <c r="GH1" s="2" t="str">
-        <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
+        <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
       <c r="GI1" s="2" t="str">
-        <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
+        <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
       <c r="GJ1" s="2" t="str">
-        <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
+        <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
       <c r="GK1" s="2" t="str">
-        <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
+        <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
       <c r="GL1" s="2" t="str">
-        <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
+        <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
       <c r="GM1" s="2" t="str">
-        <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
+        <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
       <c r="GN1" s="2" t="str">
-        <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
+        <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
       <c r="GO1" s="2" t="str">
-        <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
+        <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
       <c r="GP1" s="2" t="str">
-        <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
+        <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
       <c r="GQ1" s="2" t="str">
-        <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
+        <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
       <c r="GR1" s="2" t="str">
-        <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
+        <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
       <c r="GS1" s="2" t="str">
-        <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
+        <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
       <c r="GT1" s="2" t="str">
-        <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
+        <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
       <c r="GU1" s="2" t="str">
-        <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
+        <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
       <c r="GV1" s="2" t="str">
-        <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
+        <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
       <c r="GW1" s="2" t="str">
-        <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
+        <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
       <c r="GX1" s="2" t="str">
-        <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
+        <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
       <c r="GY1" s="2" t="str">
-        <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
+        <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
       <c r="GZ1" s="2" t="str">
-        <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
+        <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
       <c r="HA1" s="2" t="str">
-        <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
+        <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
       <c r="HB1" s="2" t="str">
-        <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
+        <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
       <c r="HC1" s="2" t="str">
-        <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
+        <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
       <c r="HD1" s="2" t="str">
-        <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
+        <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
       <c r="HE1" s="2" t="str">
-        <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
+        <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
       <c r="HF1" s="2" t="str">
-        <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
+        <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
       <c r="HG1" s="2" t="str">
-        <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
+        <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
       <c r="HH1" s="2" t="str">
-        <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
+        <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
       <c r="HI1" s="2" t="str">
-        <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
+        <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
       <c r="HJ1" s="2" t="str">
-        <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
+        <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
       <c r="HK1" s="2" t="str">
-        <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
+        <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
       <c r="HL1" s="2" t="str">
-        <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
+        <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
       <c r="HM1" s="2" t="str">
-        <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
+        <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
       <c r="HN1" s="2" t="str">
-        <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
+        <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
       <c r="HO1" s="2" t="str">
-        <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
+        <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
       <c r="HP1" s="2" t="str">
-        <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
+        <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
       <c r="HQ1" s="2" t="str">
-        <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
+        <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
       <c r="HR1" s="2" t="str">
-        <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
+        <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
       <c r="HS1" s="2" t="str">
-        <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
+        <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
       <c r="HT1" s="2" t="str">
-        <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
+        <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
       <c r="HU1" s="2" t="str">
-        <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
+        <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
       <c r="HV1" s="2" t="str">
-        <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
+        <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
       <c r="HW1" s="2" t="str">
-        <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
+        <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
       <c r="HX1" s="2" t="str">
-        <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
+        <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
       <c r="HY1" s="2" t="str">
-        <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
+        <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
       <c r="HZ1" s="2" t="str">
-        <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
+        <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
       <c r="IA1" s="2" t="str">
-        <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
+        <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
       <c r="IB1" s="2" t="str">
-        <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
+        <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
       <c r="IC1" s="2" t="str">
-        <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
+        <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
       <c r="ID1" s="2" t="str">
-        <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
+        <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
       <c r="IE1" s="2" t="str">
-        <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
+        <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
       <c r="IF1" s="2" t="str">
-        <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
+        <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
       <c r="IG1" s="2" t="str">
-        <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
+        <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
       <c r="IH1" s="2" t="str">
-        <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
+        <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
       <c r="II1" s="2" t="str">
-        <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
+        <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
       <c r="IJ1" s="2" t="str">
-        <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
+        <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
       <c r="IK1" s="2" t="str">
-        <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
+        <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
       <c r="IL1" s="2" t="str">
-        <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
+        <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
       <c r="IM1" s="2" t="str">
-        <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
+        <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
       <c r="IN1" s="2" t="str">
-        <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
+        <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
       <c r="IO1" s="2" t="str">
-        <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
+        <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
       <c r="IP1" s="2" t="str">
-        <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
+        <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
       <c r="IQ1" s="2" t="str">
-        <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
+        <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
       <c r="IR1" s="2" t="str">
-        <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
+        <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
       <c r="IS1" s="2" t="str">
-        <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
+        <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
       <c r="IT1" s="2" t="str">
-        <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
+        <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
       <c r="IU1" s="2" t="str">
-        <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
+        <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
       <c r="IV1" s="2" t="str">
-        <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
+        <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
       <c r="IW1" s="2" t="str">
-        <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
+        <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
       <c r="IX1" s="2" t="str">
-        <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
+        <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
       <c r="IY1" s="2" t="str">
-        <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
+        <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
       <c r="IZ1" s="2" t="str">
-        <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
+        <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
       <c r="JA1" s="2" t="str">
-        <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
+        <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
       <c r="JB1" s="2" t="str">
-        <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
+        <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
       <c r="JC1" s="2" t="str">
-        <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
+        <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
       <c r="JD1" s="2" t="str">
-        <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
+        <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
       <c r="JE1" s="2" t="str">
-        <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
+        <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
       <c r="JF1" s="2" t="str">
-        <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
+        <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
       <c r="JG1" s="2" t="str">
-        <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
+        <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
       <c r="JH1" s="2" t="str">
-        <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
+        <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
       <c r="JI1" s="2" t="str">
-        <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
+        <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
       <c r="JJ1" s="2" t="str">
-        <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
+        <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
       <c r="JK1" s="2" t="str">
-        <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
+        <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
       <c r="JL1" s="2" t="str">
-        <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
+        <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
       <c r="JM1" s="2" t="str">
-        <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
+        <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
       <c r="JN1" s="2" t="str">
-        <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
+        <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
       <c r="JO1" s="2" t="str">
-        <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
+        <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
       <c r="JP1" s="2" t="str">
-        <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
+        <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
       <c r="JQ1" s="2" t="str">
-        <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
+        <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
       <c r="JR1" s="2" t="str">
-        <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
+        <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
       <c r="JS1" s="2" t="str">
-        <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
+        <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
       <c r="JT1" s="2" t="str">
-        <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
+        <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
       <c r="JU1" s="2" t="str">
-        <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
+        <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
       <c r="JV1" s="2" t="str">
-        <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
+        <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
       <c r="JW1" s="2" t="str">
-        <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
+        <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
       <c r="JX1" s="2" t="str">
-        <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
+        <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
       <c r="JY1" s="2" t="str">
-        <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
+        <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
       <c r="JZ1" s="2" t="str">
-        <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
+        <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
       <c r="KA1" s="2" t="str">
-        <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
+        <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
       <c r="KB1" s="2" t="str">
-        <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
+        <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
       <c r="KC1" s="2" t="str">
-        <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
+        <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
       <c r="KD1" s="2" t="str">
-        <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
+        <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
       <c r="KE1" s="2" t="str">
-        <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
+        <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
       <c r="KF1" s="2" t="str">
-        <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
+        <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
       <c r="KG1" s="2" t="str">
-        <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
+        <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
       <c r="KH1" s="2" t="str">
-        <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
+        <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
       <c r="KI1" s="2" t="str">
-        <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
+        <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
       <c r="KJ1" s="2" t="str">
-        <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
+        <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
       <c r="KK1" s="2" t="str">
-        <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
+        <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
       <c r="KL1" s="2" t="str">
-        <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
+        <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
       <c r="KM1" s="2" t="str">
-        <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
+        <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
       <c r="KN1" s="2" t="str">
-        <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
+        <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
       <c r="KO1" s="2" t="str">
-        <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
+        <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
       <c r="KP1" s="2" t="str">
-        <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
+        <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
       <c r="KQ1" s="2" t="str">
-        <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
+        <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
       <c r="KR1" s="2" t="str">
-        <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
+        <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
       <c r="KS1" s="2" t="str">
-        <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
+        <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
       <c r="KT1" s="2" t="str">
-        <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
+        <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
       <c r="KU1" s="2" t="str">
-        <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
+        <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
       <c r="KV1" s="2" t="str">
-        <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
+        <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
       <c r="KW1" s="2" t="str">
-        <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
+        <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
       <c r="KX1" s="2" t="str">
-        <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
+        <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
       <c r="KY1" s="2" t="str">
-        <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
+        <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
       <c r="KZ1" s="2" t="str">
-        <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
+        <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
       <c r="LA1" s="2" t="str">
-        <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
+        <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
       <c r="LB1" s="2" t="str">
-        <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
+        <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
       <c r="LC1" s="2" t="str">
-        <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
+        <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
       <c r="LD1" s="2" t="str">
-        <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
+        <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
       <c r="LE1" s="2" t="str">
-        <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
+        <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
       <c r="LF1" s="2" t="str">
-        <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
+        <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
       <c r="LG1" s="2" t="str">
-        <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
+        <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
       <c r="LH1" s="2" t="str">
-        <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
+        <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
       <c r="LI1" s="2" t="str">
-        <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
+        <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
       <c r="LJ1" s="2" t="str">
-        <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
+        <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
       <c r="LK1" s="2" t="str">
-        <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
+        <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
       <c r="LL1" s="2" t="str">
-        <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
+        <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
       <c r="LM1" s="2" t="str">
-        <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
+        <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
       <c r="LN1" s="2" t="str">
-        <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
+        <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
       <c r="LO1" s="2" t="str">
-        <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
+        <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
       <c r="LP1" s="2" t="str">
-        <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
+        <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
       <c r="LQ1" s="2" t="str">
-        <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
+        <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
       <c r="LR1" s="2" t="str">
-        <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
+        <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
       <c r="LS1" s="2" t="str">
-        <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
+        <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
       <c r="LT1" s="2" t="str">
-        <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
+        <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
       <c r="LU1" s="2" t="str">
-        <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
+        <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
       <c r="LV1" s="2" t="str">
-        <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
+        <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
       <c r="LW1" s="2" t="str">
-        <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
+        <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
       <c r="LX1" s="2" t="str">
-        <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
+        <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
       <c r="LY1" s="2" t="str">
-        <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
+        <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
       <c r="LZ1" s="2" t="str">
-        <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
+        <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
       <c r="MA1" s="2" t="str">
-        <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
+        <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
       <c r="MB1" s="2" t="str">
-        <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
+        <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
       <c r="MC1" s="2" t="str">
-        <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
+        <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
       <c r="MD1" s="2" t="str">
-        <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
+        <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
       <c r="ME1" s="2" t="str">
-        <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
+        <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
       <c r="MF1" s="2" t="str">
-        <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
+        <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
       <c r="MG1" s="2" t="str">
-        <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
+        <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
       <c r="MH1" s="2" t="str">
-        <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
+        <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
       <c r="MI1" s="2" t="str">
-        <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
+        <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
       <c r="MJ1" s="2" t="str">
-        <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
+        <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
       <c r="MK1" s="2" t="str">
-        <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
+        <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
       <c r="ML1" s="2" t="str">
-        <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
+        <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
       <c r="MM1" s="2" t="str">
-        <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
+        <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
       <c r="MN1" s="2" t="str">
-        <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
+        <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
       <c r="MO1" s="2" t="str">
-        <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
+        <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
       <c r="MP1" s="2" t="str">
-        <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
+        <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
       <c r="MQ1" s="2" t="str">
-        <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
+        <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
       <c r="MR1" s="2" t="str">
-        <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
+        <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
       <c r="MS1" s="2" t="str">
-        <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
+        <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
       <c r="MT1" s="2" t="str">
-        <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
+        <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
       <c r="MU1" s="2" t="str">
-        <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
+        <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
       <c r="MV1" s="2" t="str">
-        <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
+        <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
       <c r="MW1" s="2" t="str">
-        <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
+        <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
       <c r="MX1" s="2" t="str">
-        <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
+        <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
       <c r="MY1" s="2" t="str">
-        <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
+        <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
       <c r="MZ1" s="2" t="str">
-        <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
+        <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
       <c r="NA1" s="2" t="str">
-        <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
+        <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
       <c r="NB1" s="2" t="str">
-        <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
+        <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
       <c r="NC1" s="2" t="str">
-        <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
+        <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
       <c r="ND1" s="2" t="str">
-        <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
+        <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
       <c r="NE1" s="2" t="str">
-        <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
+        <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
       <c r="NF1" s="2" t="str">
-        <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
+        <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
       <c r="NG1" s="2" t="str">
-        <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
+        <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
       <c r="NH1" s="2" t="str">
-        <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
+        <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
       <c r="NI1" s="2" t="str">
-        <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
+        <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
       <c r="NJ1" s="2" t="str">
-        <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
+        <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
       <c r="NK1" s="2" t="str">
-        <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
+        <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
       <c r="NL1" s="2" t="str">
-        <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
+        <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
       <c r="NM1" s="2" t="str">
-        <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
+        <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
       <c r="NN1" s="2" t="str">
-        <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
+        <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
       <c r="NO1" s="2" t="str">
-        <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
+        <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
       <c r="NP1" s="2" t="str">
-        <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
+        <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
       <c r="NQ1" s="2" t="str">
-        <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
+        <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
       <c r="NR1" s="2" t="str">
-        <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
+        <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
       <c r="NS1" s="2" t="str">
-        <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
+        <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
       <c r="NT1" s="2" t="str">
-        <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
+        <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
       <c r="NU1" s="2" t="str">
-        <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
+        <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
       <c r="NV1" s="2" t="str">
-        <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
+        <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
       <c r="NW1" s="2" t="str">
-        <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
+        <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
       <c r="NX1" s="2" t="str">
-        <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
+        <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
       <c r="NY1" s="2" t="str">
-        <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
+        <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
       <c r="NZ1" s="2" t="str">
-        <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
+        <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
       <c r="OA1" s="2" t="str">
-        <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
+        <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
       <c r="OB1" s="2" t="str">
-        <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
+        <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
       <c r="OC1" s="2" t="str">
-        <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
+        <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
       <c r="OD1" s="2" t="str">
-        <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
+        <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
       <c r="OE1" s="2" t="str">
-        <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
+        <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
       <c r="OF1" s="2" t="str">
-        <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
+        <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
       <c r="OG1" s="2" t="str">
-        <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
+        <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
       <c r="OH1" s="2" t="str">
-        <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
+        <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
       </c>
       <c r="OI1" s="2" t="str">
-        <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
+        <f>IF(Compartments!$A399&lt;&gt;"",Compartments!$A399,"")</f>
         <v/>
       </c>
     </row>
@@ -2949,2402 +3004,2402 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
-        <v>junc</v>
+        <v>sus</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
-        <v>vacdxr</v>
+        <v>inf</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
-        <v>dxr</v>
+        <v>rec</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:399" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="e">
-        <f>IF(Compartments!#REF!&lt;&gt;"",Compartments!#REF!,"")</f>
-        <v>#REF!</v>
+      <c r="A6" s="2" t="str">
+        <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
+        <v>dead</v>
       </c>
     </row>
     <row r="7" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
+        <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
+        <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
-        <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
+        <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
+        <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
+        <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
-        <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
+        <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
-        <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
+        <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
-        <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
+        <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
+        <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:399" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
-        <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
+        <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
-        <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
+        <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
-        <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
+        <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
-        <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
+        <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
-        <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
+        <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
-        <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
+        <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
-        <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
+        <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
-        <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
+        <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
+        <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
-        <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
+        <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
-        <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
+        <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
-        <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
+        <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
-        <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
+        <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
-        <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
+        <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
-        <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
+        <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
-        <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
+        <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
+        <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
-        <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
+        <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
+        <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
+        <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
+        <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
-        <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
+        <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
-        <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
+        <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
-        <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
+        <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
-        <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
+        <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
-        <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
+        <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
-        <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
+        <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
-        <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
+        <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
-        <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
+        <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
-        <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
+        <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
-        <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
+        <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
-        <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
+        <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
-        <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
+        <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
-        <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
+        <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
-        <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
+        <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
-        <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
+        <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
-        <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
+        <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
-        <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
+        <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
-        <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
+        <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
-        <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
+        <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
-        <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
+        <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
-        <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
+        <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
-        <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
+        <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="str">
-        <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
+        <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
-        <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
+        <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
-        <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
+        <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
-        <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
+        <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
-        <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
+        <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
-        <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
+        <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
-        <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
+        <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
-        <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
+        <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
-        <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
+        <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
-        <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
+        <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
+        <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
+        <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
+        <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
+        <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
-        <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
+        <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
-        <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
+        <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
-        <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
+        <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
+        <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
+        <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
+        <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
+        <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
-        <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
+        <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
-        <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
+        <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
-        <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
+        <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
+        <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
+        <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
+        <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
+        <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
-        <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
+        <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
-        <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
+        <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
-        <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
+        <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
+        <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="str">
-        <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
+        <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
+        <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
+        <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
-        <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
+        <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
-        <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
+        <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
-        <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
+        <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
-        <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
+        <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
-        <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
+        <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
-        <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
+        <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
-        <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
+        <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
-        <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
+        <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
-        <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
+        <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
-        <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
+        <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
-        <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
+        <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
-        <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
+        <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
-        <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
+        <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
-        <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
+        <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
-        <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
+        <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
-        <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
+        <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
-        <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
+        <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
-        <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
+        <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
-        <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
+        <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
-        <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
+        <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="str">
-        <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
+        <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
-        <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
+        <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
-        <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
+        <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="str">
-        <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
+        <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
-        <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
+        <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
-        <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
+        <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
-        <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
+        <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
-        <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
+        <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
-        <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
+        <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
-        <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
+        <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
-        <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
+        <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
-        <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
+        <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
-        <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
+        <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
-        <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
+        <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="str">
-        <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
+        <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
-        <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
+        <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="str">
-        <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
+        <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="str">
-        <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
+        <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="str">
-        <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
+        <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="str">
-        <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
+        <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="str">
-        <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
+        <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="str">
-        <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
+        <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="str">
-        <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
+        <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="str">
-        <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
+        <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="str">
-        <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
+        <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="str">
-        <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
+        <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="str">
-        <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
+        <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str">
-        <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
+        <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str">
-        <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
+        <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="str">
-        <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
+        <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="str">
-        <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
+        <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="str">
-        <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
+        <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="str">
-        <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
+        <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="str">
-        <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
+        <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="str">
-        <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
+        <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="str">
-        <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
+        <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="str">
-        <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
+        <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="str">
-        <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
+        <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="str">
-        <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
+        <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="str">
-        <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
+        <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="str">
-        <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
+        <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="str">
-        <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
+        <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="str">
-        <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
+        <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="str">
-        <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
+        <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="str">
-        <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
+        <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="str">
-        <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
+        <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="str">
-        <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
+        <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="str">
-        <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
+        <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="str">
-        <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
+        <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="str">
-        <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
+        <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="str">
-        <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
+        <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="str">
-        <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
+        <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="str">
-        <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
+        <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="str">
-        <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
+        <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="str">
-        <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
+        <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="str">
-        <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
+        <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="str">
-        <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
+        <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="str">
-        <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
+        <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="str">
-        <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
+        <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="str">
-        <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
+        <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="str">
-        <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
+        <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="str">
-        <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
+        <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="str">
-        <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
+        <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="str">
-        <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
+        <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="str">
-        <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
+        <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="str">
-        <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
+        <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="str">
-        <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
+        <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="str">
-        <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
+        <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="str">
-        <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
+        <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="str">
-        <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
+        <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="str">
-        <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
+        <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="str">
-        <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
+        <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="str">
-        <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
+        <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="str">
-        <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
+        <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="str">
-        <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
+        <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="str">
-        <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
+        <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="str">
-        <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
+        <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="str">
-        <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
+        <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="str">
-        <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
+        <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="str">
-        <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
+        <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="str">
-        <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
+        <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="str">
-        <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
+        <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="str">
-        <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
+        <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="str">
-        <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
+        <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="str">
-        <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
+        <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="str">
-        <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
+        <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="str">
-        <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
+        <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="str">
-        <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
+        <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="str">
-        <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
+        <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="str">
-        <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
+        <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="str">
-        <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
+        <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="str">
-        <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
+        <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="str">
-        <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
+        <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="str">
-        <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
+        <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="str">
-        <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
+        <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="str">
-        <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
+        <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="str">
-        <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
+        <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="str">
-        <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
+        <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="str">
-        <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
+        <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="str">
-        <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
+        <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="str">
-        <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
+        <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="str">
-        <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
+        <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="str">
-        <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
+        <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="str">
-        <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
+        <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="str">
-        <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
+        <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="str">
-        <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
+        <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="str">
-        <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
+        <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="str">
-        <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
+        <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="str">
-        <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
+        <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="str">
-        <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
+        <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="str">
-        <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
+        <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="str">
-        <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
+        <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="str">
-        <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
+        <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="str">
-        <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
+        <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="str">
-        <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
+        <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="str">
-        <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
+        <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="str">
-        <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
+        <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="str">
-        <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
+        <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="str">
-        <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
+        <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="str">
-        <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
+        <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="str">
-        <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
+        <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="str">
-        <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
+        <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="str">
-        <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
+        <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="str">
-        <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
+        <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="str">
-        <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
+        <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="str">
-        <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
+        <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="str">
-        <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
+        <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="str">
-        <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
+        <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="str">
-        <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
+        <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="str">
-        <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
+        <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="str">
-        <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
+        <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="str">
-        <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
+        <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="str">
-        <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
+        <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="str">
-        <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
+        <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="str">
-        <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
+        <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="str">
-        <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
+        <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="str">
-        <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
+        <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="str">
-        <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
+        <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="str">
-        <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
+        <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="str">
-        <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
+        <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="str">
-        <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
+        <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="str">
-        <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
+        <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="str">
-        <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
+        <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="str">
-        <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
+        <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="str">
-        <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
+        <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="str">
-        <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
+        <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="str">
-        <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
+        <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="str">
-        <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
+        <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="str">
-        <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
+        <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="str">
-        <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
+        <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="str">
-        <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
+        <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="str">
-        <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
+        <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="str">
-        <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
+        <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="str">
-        <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
+        <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="str">
-        <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
+        <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="str">
-        <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
+        <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="str">
-        <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
+        <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="str">
-        <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
+        <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="str">
-        <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
+        <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="str">
-        <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
+        <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="str">
-        <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
+        <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="str">
-        <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
+        <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="str">
-        <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
+        <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="str">
-        <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
+        <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="str">
-        <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
+        <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="str">
-        <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
+        <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="str">
-        <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
+        <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="str">
-        <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
+        <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="str">
-        <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
+        <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="str">
-        <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
+        <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="str">
-        <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
+        <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="str">
-        <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
+        <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="str">
-        <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
+        <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="str">
-        <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
+        <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="str">
-        <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
+        <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="str">
-        <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
+        <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="str">
-        <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
+        <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="str">
-        <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
+        <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="str">
-        <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
+        <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="str">
-        <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
+        <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="str">
-        <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
+        <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="str">
-        <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
+        <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="str">
-        <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
+        <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="str">
-        <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
+        <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="str">
-        <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
+        <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="str">
-        <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
+        <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="str">
-        <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
+        <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="str">
-        <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
+        <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="str">
-        <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
+        <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="str">
-        <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
+        <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="str">
-        <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
+        <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="str">
-        <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
+        <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="str">
-        <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
+        <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="str">
-        <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
+        <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="str">
-        <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
+        <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="str">
-        <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
+        <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="str">
-        <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
+        <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="str">
-        <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
+        <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="str">
-        <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
+        <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="str">
-        <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
+        <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="str">
-        <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
+        <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="str">
-        <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
+        <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="str">
-        <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
+        <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="str">
-        <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
+        <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="str">
-        <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
+        <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="str">
-        <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
+        <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="str">
-        <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
+        <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="str">
-        <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
+        <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="str">
-        <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
+        <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="str">
-        <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
+        <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="str">
-        <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
+        <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="str">
-        <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
+        <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="str">
-        <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
+        <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="str">
-        <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
+        <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="str">
-        <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
+        <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="str">
-        <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
+        <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="str">
-        <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
+        <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="str">
-        <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
+        <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="str">
-        <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
+        <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="str">
-        <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
+        <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="str">
-        <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
+        <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="str">
-        <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
+        <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="str">
-        <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
+        <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="str">
-        <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
+        <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="str">
-        <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
+        <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="str">
-        <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
+        <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="str">
-        <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
+        <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="str">
-        <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
+        <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="str">
-        <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
+        <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="str">
-        <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
+        <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="str">
-        <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
+        <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="str">
-        <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
+        <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="str">
-        <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
+        <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="str">
-        <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
+        <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="str">
-        <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
+        <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="str">
-        <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
+        <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="str">
-        <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
+        <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="str">
-        <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
+        <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="str">
-        <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
+        <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="str">
-        <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
+        <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="str">
-        <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
+        <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="str">
-        <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
+        <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="str">
-        <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
+        <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="str">
-        <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
+        <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="str">
-        <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
+        <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="str">
-        <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
+        <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="str">
-        <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
+        <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="str">
-        <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
+        <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="str">
-        <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
+        <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="str">
-        <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
+        <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="str">
-        <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
+        <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="str">
-        <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
+        <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="str">
-        <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
+        <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="str">
-        <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
+        <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="str">
-        <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
+        <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="str">
-        <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
+        <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="str">
-        <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
+        <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="str">
-        <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
+        <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="str">
-        <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
+        <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="str">
-        <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
+        <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="str">
-        <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
+        <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="str">
-        <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
+        <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="str">
-        <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
+        <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="str">
-        <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
+        <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="str">
-        <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
+        <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="str">
-        <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
+        <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="str">
-        <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
+        <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="str">
-        <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
+        <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="str">
-        <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
+        <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="str">
-        <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
+        <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="str">
-        <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
+        <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="str">
-        <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
+        <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="str">
-        <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
+        <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="str">
-        <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
+        <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="str">
-        <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
+        <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="str">
-        <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
+        <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="str">
-        <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
+        <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="str">
-        <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
+        <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="str">
-        <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
+        <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="str">
-        <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
+        <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="str">
-        <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
+        <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="str">
-        <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
+        <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="str">
-        <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
+        <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="str">
-        <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
+        <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="str">
-        <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
+        <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="str">
-        <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
+        <f>IF(Compartments!$A399&lt;&gt;"",Compartments!$A399,"")</f>
         <v/>
       </c>
     </row>
@@ -5362,7 +5417,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,16 +5426,16 @@
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5388,190 +5443,190 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
         <v>120</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
         <v>24</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
+      <c r="K5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
